--- a/reports/Debug-snowbowl-20251217/For Winter Ending (Actual)_Visits.xlsx
+++ b/reports/Debug-snowbowl-20251217/For Winter Ending (Actual)_Visits.xlsx
@@ -854,13 +854,13 @@
         <v>1</v>
       </c>
       <c r="B32" s="2">
-        <v>45971</v>
+        <v>45968</v>
       </c>
       <c r="C32" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -868,10 +868,10 @@
         <v>1</v>
       </c>
       <c r="B33" s="2">
-        <v>45975</v>
+        <v>45968</v>
       </c>
       <c r="C33" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>6</v>
@@ -885,7 +885,7 @@
         <v>45981</v>
       </c>
       <c r="C34" s="2">
-        <v>265</v>
+        <v>1</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>6</v>
@@ -896,13 +896,13 @@
         <v>1</v>
       </c>
       <c r="B35" s="2">
-        <v>45983</v>
+        <v>45981</v>
       </c>
       <c r="C35" s="2">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -913,10 +913,10 @@
         <v>45983</v>
       </c>
       <c r="C36" s="2">
-        <v>243</v>
+        <v>63</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -927,7 +927,7 @@
         <v>45984</v>
       </c>
       <c r="C37" s="2">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>6</v>
@@ -941,7 +941,7 @@
         <v>45984</v>
       </c>
       <c r="C38" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>6</v>
@@ -955,10 +955,10 @@
         <v>45984</v>
       </c>
       <c r="C39" s="2">
-        <v>1514</v>
+        <v>947</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -969,7 +969,7 @@
         <v>45986</v>
       </c>
       <c r="C40" s="2">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>6</v>
@@ -983,7 +983,7 @@
         <v>45987</v>
       </c>
       <c r="C41" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>6</v>
@@ -997,10 +997,10 @@
         <v>45987</v>
       </c>
       <c r="C42" s="2">
-        <v>1034</v>
+        <v>1431</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1008,13 +1008,13 @@
         <v>1</v>
       </c>
       <c r="B43" s="2">
-        <v>45988</v>
+        <v>45989</v>
       </c>
       <c r="C43" s="2">
-        <v>239</v>
+        <v>39</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1025,7 +1025,7 @@
         <v>45990</v>
       </c>
       <c r="C44" s="2">
-        <v>962</v>
+        <v>20</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>6</v>
@@ -1036,13 +1036,13 @@
         <v>1</v>
       </c>
       <c r="B45" s="2">
-        <v>45991</v>
+        <v>45990</v>
       </c>
       <c r="C45" s="2">
-        <v>197</v>
+        <v>1625</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1050,13 +1050,13 @@
         <v>1</v>
       </c>
       <c r="B46" s="2">
-        <v>45992</v>
+        <v>45990</v>
       </c>
       <c r="C46" s="2">
-        <v>2</v>
+        <v>368</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1064,10 +1064,10 @@
         <v>1</v>
       </c>
       <c r="B47" s="2">
-        <v>45994</v>
+        <v>45991</v>
       </c>
       <c r="C47" s="2">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>6</v>
@@ -1078,13 +1078,13 @@
         <v>1</v>
       </c>
       <c r="B48" s="2">
-        <v>45994</v>
+        <v>45992</v>
       </c>
       <c r="C48" s="2">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1092,7 +1092,7 @@
         <v>1</v>
       </c>
       <c r="B49" s="2">
-        <v>45997</v>
+        <v>45993</v>
       </c>
       <c r="C49" s="2">
         <v>3</v>
@@ -1106,13 +1106,13 @@
         <v>1</v>
       </c>
       <c r="B50" s="2">
-        <v>45997</v>
+        <v>45993</v>
       </c>
       <c r="C50" s="2">
-        <v>173</v>
+        <v>738</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1120,13 +1120,13 @@
         <v>1</v>
       </c>
       <c r="B51" s="2">
-        <v>45999</v>
+        <v>45993</v>
       </c>
       <c r="C51" s="2">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1134,10 +1134,10 @@
         <v>1</v>
       </c>
       <c r="B52" s="2">
-        <v>46000</v>
+        <v>45994</v>
       </c>
       <c r="C52" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>6</v>
@@ -1148,13 +1148,13 @@
         <v>1</v>
       </c>
       <c r="B53" s="2">
-        <v>46000</v>
+        <v>45996</v>
       </c>
       <c r="C53" s="2">
-        <v>913</v>
+        <v>1</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1162,13 +1162,13 @@
         <v>1</v>
       </c>
       <c r="B54" s="2">
-        <v>46002</v>
+        <v>45996</v>
       </c>
       <c r="C54" s="2">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1176,10 +1176,10 @@
         <v>1</v>
       </c>
       <c r="B55" s="2">
-        <v>46003</v>
+        <v>45997</v>
       </c>
       <c r="C55" s="2">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>6</v>
@@ -1190,13 +1190,13 @@
         <v>1</v>
       </c>
       <c r="B56" s="2">
-        <v>46003</v>
+        <v>45997</v>
       </c>
       <c r="C56" s="2">
-        <v>1104</v>
+        <v>1192</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1204,10 +1204,10 @@
         <v>1</v>
       </c>
       <c r="B57" s="2">
-        <v>46004</v>
+        <v>45999</v>
       </c>
       <c r="C57" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>6</v>
@@ -1218,13 +1218,13 @@
         <v>1</v>
       </c>
       <c r="B58" s="2">
-        <v>46004</v>
+        <v>45999</v>
       </c>
       <c r="C58" s="2">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1232,10 +1232,10 @@
         <v>1</v>
       </c>
       <c r="B59" s="2">
-        <v>46005</v>
+        <v>46000</v>
       </c>
       <c r="C59" s="2">
-        <v>91</v>
+        <v>570</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>6</v>
@@ -1246,10 +1246,10 @@
         <v>1</v>
       </c>
       <c r="B60" s="2">
-        <v>46006</v>
+        <v>46001</v>
       </c>
       <c r="C60" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>6</v>
@@ -1260,13 +1260,13 @@
         <v>1</v>
       </c>
       <c r="B61" s="2">
-        <v>46006</v>
+        <v>46003</v>
       </c>
       <c r="C61" s="2">
-        <v>1389</v>
+        <v>997</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1274,13 +1274,13 @@
         <v>1</v>
       </c>
       <c r="B62" s="2">
-        <v>46006</v>
+        <v>46004</v>
       </c>
       <c r="C62" s="2">
-        <v>91</v>
+        <v>245</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1291,10 +1291,10 @@
         <v>46007</v>
       </c>
       <c r="C63" s="2">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1302,10 +1302,10 @@
         <v>1</v>
       </c>
       <c r="B64" s="2">
-        <v>46008</v>
+        <v>45982</v>
       </c>
       <c r="C64" s="2">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>6</v>
@@ -1316,7 +1316,7 @@
         <v>1</v>
       </c>
       <c r="B65" s="2">
-        <v>45968</v>
+        <v>45982</v>
       </c>
       <c r="C65" s="2">
         <v>1</v>
@@ -1330,10 +1330,10 @@
         <v>1</v>
       </c>
       <c r="B66" s="2">
-        <v>45968</v>
+        <v>45982</v>
       </c>
       <c r="C66" s="2">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>6</v>
@@ -1344,10 +1344,10 @@
         <v>1</v>
       </c>
       <c r="B67" s="2">
-        <v>45981</v>
+        <v>45983</v>
       </c>
       <c r="C67" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>6</v>
@@ -1358,13 +1358,13 @@
         <v>1</v>
       </c>
       <c r="B68" s="2">
-        <v>45981</v>
+        <v>45983</v>
       </c>
       <c r="C68" s="2">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1375,7 +1375,7 @@
         <v>45983</v>
       </c>
       <c r="C69" s="2">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>6</v>
@@ -1389,10 +1389,10 @@
         <v>45984</v>
       </c>
       <c r="C70" s="2">
-        <v>5</v>
+        <v>288</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1400,10 +1400,10 @@
         <v>1</v>
       </c>
       <c r="B71" s="2">
-        <v>45984</v>
+        <v>45985</v>
       </c>
       <c r="C71" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>6</v>
@@ -1414,13 +1414,13 @@
         <v>1</v>
       </c>
       <c r="B72" s="2">
-        <v>45984</v>
+        <v>45985</v>
       </c>
       <c r="C72" s="2">
-        <v>947</v>
+        <v>52</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1428,10 +1428,10 @@
         <v>1</v>
       </c>
       <c r="B73" s="2">
-        <v>45986</v>
+        <v>45985</v>
       </c>
       <c r="C73" s="2">
-        <v>58</v>
+        <v>1280</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>6</v>
@@ -1445,7 +1445,7 @@
         <v>45987</v>
       </c>
       <c r="C74" s="2">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>6</v>
@@ -1459,10 +1459,10 @@
         <v>45987</v>
       </c>
       <c r="C75" s="2">
-        <v>1431</v>
+        <v>243</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1470,10 +1470,10 @@
         <v>1</v>
       </c>
       <c r="B76" s="2">
-        <v>45989</v>
+        <v>45988</v>
       </c>
       <c r="C76" s="2">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>6</v>
@@ -1484,10 +1484,10 @@
         <v>1</v>
       </c>
       <c r="B77" s="2">
-        <v>45990</v>
+        <v>45988</v>
       </c>
       <c r="C77" s="2">
-        <v>20</v>
+        <v>672</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>6</v>
@@ -1501,10 +1501,10 @@
         <v>45990</v>
       </c>
       <c r="C78" s="2">
-        <v>1625</v>
+        <v>21</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1515,10 +1515,10 @@
         <v>45990</v>
       </c>
       <c r="C79" s="2">
-        <v>368</v>
+        <v>1</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1529,7 +1529,7 @@
         <v>45991</v>
       </c>
       <c r="C80" s="2">
-        <v>14</v>
+        <v>964</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>6</v>
@@ -1540,10 +1540,10 @@
         <v>1</v>
       </c>
       <c r="B81" s="2">
-        <v>45992</v>
+        <v>45993</v>
       </c>
       <c r="C81" s="2">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>6</v>
@@ -1554,10 +1554,10 @@
         <v>1</v>
       </c>
       <c r="B82" s="2">
-        <v>45993</v>
+        <v>45994</v>
       </c>
       <c r="C82" s="2">
-        <v>3</v>
+        <v>593</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>6</v>
@@ -1568,13 +1568,13 @@
         <v>1</v>
       </c>
       <c r="B83" s="2">
-        <v>45993</v>
+        <v>45996</v>
       </c>
       <c r="C83" s="2">
-        <v>738</v>
+        <v>16</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1582,13 +1582,13 @@
         <v>1</v>
       </c>
       <c r="B84" s="2">
-        <v>45993</v>
+        <v>45996</v>
       </c>
       <c r="C84" s="2">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1596,13 +1596,13 @@
         <v>1</v>
       </c>
       <c r="B85" s="2">
-        <v>45994</v>
+        <v>45996</v>
       </c>
       <c r="C85" s="2">
-        <v>10</v>
+        <v>1091</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1610,13 +1610,13 @@
         <v>1</v>
       </c>
       <c r="B86" s="2">
-        <v>45996</v>
+        <v>45999</v>
       </c>
       <c r="C86" s="2">
-        <v>1</v>
+        <v>1058</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1624,13 +1624,13 @@
         <v>1</v>
       </c>
       <c r="B87" s="2">
-        <v>45996</v>
+        <v>46000</v>
       </c>
       <c r="C87" s="2">
         <v>85</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1638,10 +1638,10 @@
         <v>1</v>
       </c>
       <c r="B88" s="2">
-        <v>45997</v>
+        <v>46002</v>
       </c>
       <c r="C88" s="2">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>6</v>
@@ -1652,13 +1652,13 @@
         <v>1</v>
       </c>
       <c r="B89" s="2">
-        <v>45997</v>
+        <v>46002</v>
       </c>
       <c r="C89" s="2">
-        <v>1192</v>
+        <v>1080</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1666,13 +1666,13 @@
         <v>1</v>
       </c>
       <c r="B90" s="2">
-        <v>45999</v>
+        <v>46003</v>
       </c>
       <c r="C90" s="2">
+        <v>133</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1680,13 +1680,13 @@
         <v>1</v>
       </c>
       <c r="B91" s="2">
-        <v>45999</v>
+        <v>46005</v>
       </c>
       <c r="C91" s="2">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1694,13 +1694,13 @@
         <v>1</v>
       </c>
       <c r="B92" s="2">
-        <v>46000</v>
+        <v>46005</v>
       </c>
       <c r="C92" s="2">
-        <v>570</v>
+        <v>1548</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1708,10 +1708,10 @@
         <v>1</v>
       </c>
       <c r="B93" s="2">
-        <v>46001</v>
+        <v>46006</v>
       </c>
       <c r="C93" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>6</v>
@@ -1722,13 +1722,13 @@
         <v>1</v>
       </c>
       <c r="B94" s="2">
-        <v>46003</v>
+        <v>46006</v>
       </c>
       <c r="C94" s="2">
-        <v>997</v>
+        <v>129</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1736,13 +1736,13 @@
         <v>1</v>
       </c>
       <c r="B95" s="2">
-        <v>46004</v>
+        <v>46008</v>
       </c>
       <c r="C95" s="2">
-        <v>245</v>
+        <v>10</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1750,13 +1750,13 @@
         <v>1</v>
       </c>
       <c r="B96" s="2">
-        <v>46007</v>
+        <v>45965</v>
       </c>
       <c r="C96" s="2">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1767,10 +1767,10 @@
         <v>45969</v>
       </c>
       <c r="C97" s="2">
-        <v>1</v>
+        <v>434</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1778,10 +1778,10 @@
         <v>1</v>
       </c>
       <c r="B98" s="2">
-        <v>45969</v>
+        <v>45980</v>
       </c>
       <c r="C98" s="2">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>6</v>
@@ -1792,10 +1792,10 @@
         <v>1</v>
       </c>
       <c r="B99" s="2">
-        <v>45975</v>
+        <v>45982</v>
       </c>
       <c r="C99" s="2">
-        <v>4</v>
+        <v>1451</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>6</v>
@@ -1806,10 +1806,10 @@
         <v>1</v>
       </c>
       <c r="B100" s="2">
-        <v>45983</v>
+        <v>45982</v>
       </c>
       <c r="C100" s="2">
-        <v>947</v>
+        <v>570</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>5</v>
@@ -1820,13 +1820,13 @@
         <v>1</v>
       </c>
       <c r="B101" s="2">
-        <v>45984</v>
+        <v>45983</v>
       </c>
       <c r="C101" s="2">
-        <v>129</v>
+        <v>1</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1834,13 +1834,13 @@
         <v>1</v>
       </c>
       <c r="B102" s="2">
-        <v>45986</v>
+        <v>45983</v>
       </c>
       <c r="C102" s="2">
-        <v>5</v>
+        <v>136</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1848,13 +1848,13 @@
         <v>1</v>
       </c>
       <c r="B103" s="2">
-        <v>45986</v>
+        <v>45985</v>
       </c>
       <c r="C103" s="2">
-        <v>1213</v>
+        <v>1</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1862,13 +1862,13 @@
         <v>1</v>
       </c>
       <c r="B104" s="2">
-        <v>45987</v>
+        <v>45985</v>
       </c>
       <c r="C104" s="2">
-        <v>285</v>
+        <v>1228</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1876,10 +1876,10 @@
         <v>1</v>
       </c>
       <c r="B105" s="2">
-        <v>45989</v>
+        <v>45986</v>
       </c>
       <c r="C105" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>6</v>
@@ -1890,13 +1890,13 @@
         <v>1</v>
       </c>
       <c r="B106" s="2">
-        <v>45989</v>
+        <v>45986</v>
       </c>
       <c r="C106" s="2">
-        <v>1400</v>
+        <v>2</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1904,13 +1904,13 @@
         <v>1</v>
       </c>
       <c r="B107" s="2">
-        <v>45990</v>
+        <v>45986</v>
       </c>
       <c r="C107" s="2">
-        <v>21</v>
+        <v>201</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -1918,10 +1918,10 @@
         <v>1</v>
       </c>
       <c r="B108" s="2">
-        <v>45990</v>
+        <v>45988</v>
       </c>
       <c r="C108" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>6</v>
@@ -1932,13 +1932,13 @@
         <v>1</v>
       </c>
       <c r="B109" s="2">
-        <v>45990</v>
+        <v>45989</v>
       </c>
       <c r="C109" s="2">
-        <v>239</v>
+        <v>11</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1946,10 +1946,10 @@
         <v>1</v>
       </c>
       <c r="B110" s="2">
-        <v>45992</v>
+        <v>45989</v>
       </c>
       <c r="C110" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>6</v>
@@ -1960,10 +1960,10 @@
         <v>1</v>
       </c>
       <c r="B111" s="2">
-        <v>45993</v>
+        <v>45989</v>
       </c>
       <c r="C111" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>6</v>
@@ -1974,10 +1974,10 @@
         <v>1</v>
       </c>
       <c r="B112" s="2">
-        <v>45993</v>
+        <v>45989</v>
       </c>
       <c r="C112" s="2">
-        <v>67</v>
+        <v>281</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>7</v>
@@ -1988,13 +1988,13 @@
         <v>1</v>
       </c>
       <c r="B113" s="2">
-        <v>45994</v>
+        <v>45990</v>
       </c>
       <c r="C113" s="2">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2002,10 +2002,10 @@
         <v>1</v>
       </c>
       <c r="B114" s="2">
-        <v>45995</v>
+        <v>45991</v>
       </c>
       <c r="C114" s="2">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>6</v>
@@ -2016,13 +2016,13 @@
         <v>1</v>
       </c>
       <c r="B115" s="2">
-        <v>45997</v>
+        <v>45991</v>
       </c>
       <c r="C115" s="2">
-        <v>235</v>
+        <v>2</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2030,10 +2030,10 @@
         <v>1</v>
       </c>
       <c r="B116" s="2">
-        <v>45997</v>
+        <v>45991</v>
       </c>
       <c r="C116" s="2">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>6</v>
@@ -2044,10 +2044,10 @@
         <v>1</v>
       </c>
       <c r="B117" s="2">
-        <v>45998</v>
+        <v>45992</v>
       </c>
       <c r="C117" s="2">
-        <v>93</v>
+        <v>7</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>6</v>
@@ -2058,10 +2058,10 @@
         <v>1</v>
       </c>
       <c r="B118" s="2">
-        <v>45998</v>
+        <v>45992</v>
       </c>
       <c r="C118" s="2">
-        <v>1151</v>
+        <v>1</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>6</v>
@@ -2072,7 +2072,7 @@
         <v>1</v>
       </c>
       <c r="B119" s="2">
-        <v>45999</v>
+        <v>45994</v>
       </c>
       <c r="C119" s="2">
         <v>2</v>
@@ -2086,10 +2086,10 @@
         <v>1</v>
       </c>
       <c r="B120" s="2">
-        <v>46000</v>
+        <v>45994</v>
       </c>
       <c r="C120" s="2">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>6</v>
@@ -2100,13 +2100,13 @@
         <v>1</v>
       </c>
       <c r="B121" s="2">
-        <v>46000</v>
+        <v>45995</v>
       </c>
       <c r="C121" s="2">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2114,10 +2114,10 @@
         <v>1</v>
       </c>
       <c r="B122" s="2">
-        <v>46001</v>
+        <v>45996</v>
       </c>
       <c r="C122" s="2">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>6</v>
@@ -2128,10 +2128,10 @@
         <v>1</v>
       </c>
       <c r="B123" s="2">
-        <v>46001</v>
+        <v>45997</v>
       </c>
       <c r="C123" s="2">
-        <v>725</v>
+        <v>64</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>6</v>
@@ -2142,13 +2142,13 @@
         <v>1</v>
       </c>
       <c r="B124" s="2">
-        <v>46003</v>
+        <v>45998</v>
       </c>
       <c r="C124" s="2">
-        <v>13</v>
+        <v>205</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2156,13 +2156,13 @@
         <v>1</v>
       </c>
       <c r="B125" s="2">
-        <v>46003</v>
+        <v>45999</v>
       </c>
       <c r="C125" s="2">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2170,10 +2170,10 @@
         <v>1</v>
       </c>
       <c r="B126" s="2">
-        <v>46004</v>
+        <v>46000</v>
       </c>
       <c r="C126" s="2">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>6</v>
@@ -2184,13 +2184,13 @@
         <v>1</v>
       </c>
       <c r="B127" s="2">
-        <v>46004</v>
+        <v>46001</v>
       </c>
       <c r="C127" s="2">
-        <v>847</v>
+        <v>87</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2198,10 +2198,10 @@
         <v>1</v>
       </c>
       <c r="B128" s="2">
-        <v>46005</v>
+        <v>46002</v>
       </c>
       <c r="C128" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>6</v>
@@ -2212,10 +2212,10 @@
         <v>1</v>
       </c>
       <c r="B129" s="2">
-        <v>46006</v>
+        <v>46002</v>
       </c>
       <c r="C129" s="2">
-        <v>5</v>
+        <v>741</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>6</v>
@@ -2226,10 +2226,10 @@
         <v>1</v>
       </c>
       <c r="B130" s="2">
-        <v>46007</v>
+        <v>46003</v>
       </c>
       <c r="C130" s="2">
-        <v>574</v>
+        <v>2</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>6</v>
@@ -2240,13 +2240,13 @@
         <v>1</v>
       </c>
       <c r="B131" s="2">
-        <v>46008</v>
+        <v>46004</v>
       </c>
       <c r="C131" s="2">
-        <v>1</v>
+        <v>417</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2254,10 +2254,10 @@
         <v>1</v>
       </c>
       <c r="B132" s="2">
-        <v>45982</v>
+        <v>46005</v>
       </c>
       <c r="C132" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>6</v>
@@ -2268,10 +2268,10 @@
         <v>1</v>
       </c>
       <c r="B133" s="2">
-        <v>45982</v>
+        <v>46005</v>
       </c>
       <c r="C133" s="2">
-        <v>1</v>
+        <v>993</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>6</v>
@@ -2282,13 +2282,13 @@
         <v>1</v>
       </c>
       <c r="B134" s="2">
-        <v>45982</v>
+        <v>46007</v>
       </c>
       <c r="C134" s="2">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2296,10 +2296,10 @@
         <v>1</v>
       </c>
       <c r="B135" s="2">
-        <v>45983</v>
+        <v>46007</v>
       </c>
       <c r="C135" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>6</v>
@@ -2310,10 +2310,10 @@
         <v>1</v>
       </c>
       <c r="B136" s="2">
-        <v>45983</v>
+        <v>46008</v>
       </c>
       <c r="C136" s="2">
-        <v>2</v>
+        <v>596</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>6</v>
@@ -2324,13 +2324,13 @@
         <v>1</v>
       </c>
       <c r="B137" s="2">
-        <v>45983</v>
+        <v>46008</v>
       </c>
       <c r="C137" s="2">
-        <v>1</v>
+        <v>1505</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2338,13 +2338,13 @@
         <v>1</v>
       </c>
       <c r="B138" s="2">
-        <v>45984</v>
+        <v>45969</v>
       </c>
       <c r="C138" s="2">
-        <v>288</v>
+        <v>1</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2352,10 +2352,10 @@
         <v>1</v>
       </c>
       <c r="B139" s="2">
-        <v>45985</v>
+        <v>45969</v>
       </c>
       <c r="C139" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>6</v>
@@ -2366,10 +2366,10 @@
         <v>1</v>
       </c>
       <c r="B140" s="2">
-        <v>45985</v>
+        <v>45975</v>
       </c>
       <c r="C140" s="2">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>6</v>
@@ -2380,13 +2380,13 @@
         <v>1</v>
       </c>
       <c r="B141" s="2">
-        <v>45985</v>
+        <v>45983</v>
       </c>
       <c r="C141" s="2">
-        <v>1280</v>
+        <v>947</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2394,13 +2394,13 @@
         <v>1</v>
       </c>
       <c r="B142" s="2">
-        <v>45987</v>
+        <v>45984</v>
       </c>
       <c r="C142" s="2">
-        <v>23</v>
+        <v>129</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2408,13 +2408,13 @@
         <v>1</v>
       </c>
       <c r="B143" s="2">
-        <v>45987</v>
+        <v>45986</v>
       </c>
       <c r="C143" s="2">
-        <v>243</v>
+        <v>5</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2422,13 +2422,13 @@
         <v>1</v>
       </c>
       <c r="B144" s="2">
-        <v>45988</v>
+        <v>45986</v>
       </c>
       <c r="C144" s="2">
-        <v>28</v>
+        <v>1213</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2436,13 +2436,13 @@
         <v>1</v>
       </c>
       <c r="B145" s="2">
-        <v>45988</v>
+        <v>45987</v>
       </c>
       <c r="C145" s="2">
-        <v>672</v>
+        <v>285</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2450,10 +2450,10 @@
         <v>1</v>
       </c>
       <c r="B146" s="2">
-        <v>45990</v>
+        <v>45989</v>
       </c>
       <c r="C146" s="2">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>6</v>
@@ -2464,13 +2464,13 @@
         <v>1</v>
       </c>
       <c r="B147" s="2">
-        <v>45990</v>
+        <v>45989</v>
       </c>
       <c r="C147" s="2">
-        <v>1</v>
+        <v>1400</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2478,10 +2478,10 @@
         <v>1</v>
       </c>
       <c r="B148" s="2">
-        <v>45991</v>
+        <v>45990</v>
       </c>
       <c r="C148" s="2">
-        <v>964</v>
+        <v>21</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>6</v>
@@ -2492,10 +2492,10 @@
         <v>1</v>
       </c>
       <c r="B149" s="2">
-        <v>45993</v>
+        <v>45990</v>
       </c>
       <c r="C149" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>6</v>
@@ -2506,13 +2506,13 @@
         <v>1</v>
       </c>
       <c r="B150" s="2">
-        <v>45994</v>
+        <v>45990</v>
       </c>
       <c r="C150" s="2">
-        <v>593</v>
+        <v>239</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2520,10 +2520,10 @@
         <v>1</v>
       </c>
       <c r="B151" s="2">
-        <v>45996</v>
+        <v>45992</v>
       </c>
       <c r="C151" s="2">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>6</v>
@@ -2534,10 +2534,10 @@
         <v>1</v>
       </c>
       <c r="B152" s="2">
-        <v>45996</v>
+        <v>45993</v>
       </c>
       <c r="C152" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>6</v>
@@ -2548,13 +2548,13 @@
         <v>1</v>
       </c>
       <c r="B153" s="2">
-        <v>45996</v>
+        <v>45993</v>
       </c>
       <c r="C153" s="2">
-        <v>1091</v>
+        <v>67</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -2562,13 +2562,13 @@
         <v>1</v>
       </c>
       <c r="B154" s="2">
-        <v>45999</v>
+        <v>45994</v>
       </c>
       <c r="C154" s="2">
-        <v>1058</v>
+        <v>33</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -2576,13 +2576,13 @@
         <v>1</v>
       </c>
       <c r="B155" s="2">
-        <v>46000</v>
+        <v>45995</v>
       </c>
       <c r="C155" s="2">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2590,13 +2590,13 @@
         <v>1</v>
       </c>
       <c r="B156" s="2">
-        <v>46002</v>
+        <v>45997</v>
       </c>
       <c r="C156" s="2">
-        <v>4</v>
+        <v>235</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -2604,13 +2604,13 @@
         <v>1</v>
       </c>
       <c r="B157" s="2">
-        <v>46002</v>
+        <v>45997</v>
       </c>
       <c r="C157" s="2">
-        <v>1080</v>
+        <v>1</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -2618,13 +2618,13 @@
         <v>1</v>
       </c>
       <c r="B158" s="2">
-        <v>46003</v>
+        <v>45998</v>
       </c>
       <c r="C158" s="2">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -2632,10 +2632,10 @@
         <v>1</v>
       </c>
       <c r="B159" s="2">
-        <v>46005</v>
+        <v>45998</v>
       </c>
       <c r="C159" s="2">
-        <v>1</v>
+        <v>1151</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>6</v>
@@ -2646,13 +2646,13 @@
         <v>1</v>
       </c>
       <c r="B160" s="2">
-        <v>46005</v>
+        <v>45999</v>
       </c>
       <c r="C160" s="2">
-        <v>1548</v>
+        <v>2</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -2660,10 +2660,10 @@
         <v>1</v>
       </c>
       <c r="B161" s="2">
-        <v>46006</v>
+        <v>46000</v>
       </c>
       <c r="C161" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>6</v>
@@ -2674,13 +2674,13 @@
         <v>1</v>
       </c>
       <c r="B162" s="2">
-        <v>46006</v>
+        <v>46000</v>
       </c>
       <c r="C162" s="2">
-        <v>129</v>
+        <v>53</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -2688,10 +2688,10 @@
         <v>1</v>
       </c>
       <c r="B163" s="2">
-        <v>46008</v>
+        <v>46001</v>
       </c>
       <c r="C163" s="2">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>6</v>
@@ -2702,10 +2702,10 @@
         <v>1</v>
       </c>
       <c r="B164" s="2">
-        <v>45969</v>
+        <v>46001</v>
       </c>
       <c r="C164" s="2">
-        <v>4</v>
+        <v>725</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>6</v>
@@ -2716,10 +2716,10 @@
         <v>1</v>
       </c>
       <c r="B165" s="2">
-        <v>45982</v>
+        <v>46003</v>
       </c>
       <c r="C165" s="2">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>6</v>
@@ -2730,13 +2730,13 @@
         <v>1</v>
       </c>
       <c r="B166" s="2">
-        <v>45982</v>
+        <v>46003</v>
       </c>
       <c r="C166" s="2">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -2744,10 +2744,10 @@
         <v>1</v>
       </c>
       <c r="B167" s="2">
-        <v>45985</v>
+        <v>46004</v>
       </c>
       <c r="C167" s="2">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>6</v>
@@ -2758,10 +2758,10 @@
         <v>1</v>
       </c>
       <c r="B168" s="2">
-        <v>45985</v>
+        <v>46004</v>
       </c>
       <c r="C168" s="2">
-        <v>1</v>
+        <v>847</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>6</v>
@@ -2772,13 +2772,13 @@
         <v>1</v>
       </c>
       <c r="B169" s="2">
-        <v>45985</v>
+        <v>46005</v>
       </c>
       <c r="C169" s="2">
-        <v>134</v>
+        <v>1</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -2786,13 +2786,13 @@
         <v>1</v>
       </c>
       <c r="B170" s="2">
-        <v>45986</v>
+        <v>46006</v>
       </c>
       <c r="C170" s="2">
-        <v>136</v>
+        <v>5</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -2800,10 +2800,10 @@
         <v>1</v>
       </c>
       <c r="B171" s="2">
-        <v>45987</v>
+        <v>46007</v>
       </c>
       <c r="C171" s="2">
-        <v>42</v>
+        <v>574</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>6</v>
@@ -2814,10 +2814,10 @@
         <v>1</v>
       </c>
       <c r="B172" s="2">
-        <v>45988</v>
+        <v>46008</v>
       </c>
       <c r="C172" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>6</v>
@@ -2828,10 +2828,10 @@
         <v>1</v>
       </c>
       <c r="B173" s="2">
-        <v>45988</v>
+        <v>45969</v>
       </c>
       <c r="C173" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>6</v>
@@ -2842,13 +2842,13 @@
         <v>1</v>
       </c>
       <c r="B174" s="2">
-        <v>45988</v>
+        <v>45982</v>
       </c>
       <c r="C174" s="2">
-        <v>1277</v>
+        <v>4</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -2856,13 +2856,13 @@
         <v>1</v>
       </c>
       <c r="B175" s="2">
-        <v>45989</v>
+        <v>45982</v>
       </c>
       <c r="C175" s="2">
-        <v>462</v>
+        <v>79</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="B176" s="2">
-        <v>45990</v>
+        <v>45985</v>
       </c>
       <c r="C176" s="2">
         <v>3</v>
@@ -2884,10 +2884,10 @@
         <v>1</v>
       </c>
       <c r="B177" s="2">
-        <v>45990</v>
+        <v>45985</v>
       </c>
       <c r="C177" s="2">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>6</v>
@@ -2898,13 +2898,13 @@
         <v>1</v>
       </c>
       <c r="B178" s="2">
-        <v>45991</v>
+        <v>45985</v>
       </c>
       <c r="C178" s="2">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -2912,13 +2912,13 @@
         <v>1</v>
       </c>
       <c r="B179" s="2">
-        <v>45991</v>
+        <v>45986</v>
       </c>
       <c r="C179" s="2">
-        <v>4</v>
+        <v>136</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -2926,13 +2926,13 @@
         <v>1</v>
       </c>
       <c r="B180" s="2">
-        <v>45991</v>
+        <v>45987</v>
       </c>
       <c r="C180" s="2">
-        <v>1317</v>
+        <v>42</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -2940,13 +2940,13 @@
         <v>1</v>
       </c>
       <c r="B181" s="2">
-        <v>45992</v>
+        <v>45988</v>
       </c>
       <c r="C181" s="2">
-        <v>117</v>
+        <v>5</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -2954,10 +2954,10 @@
         <v>1</v>
       </c>
       <c r="B182" s="2">
-        <v>45993</v>
+        <v>45988</v>
       </c>
       <c r="C182" s="2">
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>6</v>
@@ -2968,13 +2968,13 @@
         <v>1</v>
       </c>
       <c r="B183" s="2">
-        <v>45993</v>
+        <v>45988</v>
       </c>
       <c r="C183" s="2">
-        <v>488</v>
+        <v>1274</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -2982,13 +2982,13 @@
         <v>1</v>
       </c>
       <c r="B184" s="2">
-        <v>45994</v>
+        <v>45989</v>
       </c>
       <c r="C184" s="2">
-        <v>3</v>
+        <v>462</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -2996,13 +2996,13 @@
         <v>1</v>
       </c>
       <c r="B185" s="2">
-        <v>45994</v>
+        <v>45990</v>
       </c>
       <c r="C185" s="2">
-        <v>711</v>
+        <v>3</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3010,10 +3010,10 @@
         <v>1</v>
       </c>
       <c r="B186" s="2">
-        <v>45995</v>
+        <v>45990</v>
       </c>
       <c r="C186" s="2">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>6</v>
@@ -3024,13 +3024,13 @@
         <v>1</v>
       </c>
       <c r="B187" s="2">
-        <v>45995</v>
+        <v>45991</v>
       </c>
       <c r="C187" s="2">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3038,10 +3038,10 @@
         <v>1</v>
       </c>
       <c r="B188" s="2">
-        <v>45996</v>
+        <v>45991</v>
       </c>
       <c r="C188" s="2">
-        <v>94</v>
+        <v>4</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>6</v>
@@ -3052,13 +3052,13 @@
         <v>1</v>
       </c>
       <c r="B189" s="2">
-        <v>45996</v>
+        <v>45991</v>
       </c>
       <c r="C189" s="2">
-        <v>1326</v>
+        <v>1317</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3066,13 +3066,13 @@
         <v>1</v>
       </c>
       <c r="B190" s="2">
-        <v>45997</v>
+        <v>45992</v>
       </c>
       <c r="C190" s="2">
-        <v>2</v>
+        <v>117</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3080,13 +3080,13 @@
         <v>1</v>
       </c>
       <c r="B191" s="2">
-        <v>45997</v>
+        <v>45993</v>
       </c>
       <c r="C191" s="2">
-        <v>1627</v>
+        <v>66</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3094,10 +3094,10 @@
         <v>1</v>
       </c>
       <c r="B192" s="2">
-        <v>45998</v>
+        <v>45993</v>
       </c>
       <c r="C192" s="2">
-        <v>21</v>
+        <v>488</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>6</v>
@@ -3108,7 +3108,7 @@
         <v>1</v>
       </c>
       <c r="B193" s="2">
-        <v>45998</v>
+        <v>45994</v>
       </c>
       <c r="C193" s="2">
         <v>3</v>
@@ -3122,13 +3122,13 @@
         <v>1</v>
       </c>
       <c r="B194" s="2">
-        <v>45999</v>
+        <v>45994</v>
       </c>
       <c r="C194" s="2">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3136,10 +3136,10 @@
         <v>1</v>
       </c>
       <c r="B195" s="2">
-        <v>45999</v>
+        <v>45995</v>
       </c>
       <c r="C195" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>6</v>
@@ -3150,13 +3150,13 @@
         <v>1</v>
       </c>
       <c r="B196" s="2">
-        <v>46000</v>
+        <v>45995</v>
       </c>
       <c r="C196" s="2">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3164,10 +3164,10 @@
         <v>1</v>
       </c>
       <c r="B197" s="2">
-        <v>46001</v>
+        <v>45996</v>
       </c>
       <c r="C197" s="2">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>6</v>
@@ -3178,10 +3178,10 @@
         <v>1</v>
       </c>
       <c r="B198" s="2">
-        <v>46003</v>
+        <v>45996</v>
       </c>
       <c r="C198" s="2">
-        <v>9</v>
+        <v>1326</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>6</v>
@@ -3192,13 +3192,13 @@
         <v>1</v>
       </c>
       <c r="B199" s="2">
-        <v>46008</v>
+        <v>45997</v>
       </c>
       <c r="C199" s="2">
-        <v>118</v>
+        <v>2</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3206,13 +3206,13 @@
         <v>1</v>
       </c>
       <c r="B200" s="2">
-        <v>45965</v>
+        <v>45997</v>
       </c>
       <c r="C200" s="2">
-        <v>1</v>
+        <v>1627</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3220,13 +3220,13 @@
         <v>1</v>
       </c>
       <c r="B201" s="2">
-        <v>45969</v>
+        <v>45998</v>
       </c>
       <c r="C201" s="2">
-        <v>434</v>
+        <v>21</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3234,10 +3234,10 @@
         <v>1</v>
       </c>
       <c r="B202" s="2">
-        <v>45980</v>
+        <v>45998</v>
       </c>
       <c r="C202" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D202" s="2" t="s">
         <v>6</v>
@@ -3248,10 +3248,10 @@
         <v>1</v>
       </c>
       <c r="B203" s="2">
-        <v>45982</v>
+        <v>45999</v>
       </c>
       <c r="C203" s="2">
-        <v>1451</v>
+        <v>718</v>
       </c>
       <c r="D203" s="2" t="s">
         <v>6</v>
@@ -3262,13 +3262,13 @@
         <v>1</v>
       </c>
       <c r="B204" s="2">
-        <v>45982</v>
+        <v>45999</v>
       </c>
       <c r="C204" s="2">
-        <v>570</v>
+        <v>1</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -3276,10 +3276,10 @@
         <v>1</v>
       </c>
       <c r="B205" s="2">
-        <v>45983</v>
+        <v>46000</v>
       </c>
       <c r="C205" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D205" s="2" t="s">
         <v>6</v>
@@ -3290,13 +3290,13 @@
         <v>1</v>
       </c>
       <c r="B206" s="2">
-        <v>45983</v>
+        <v>46001</v>
       </c>
       <c r="C206" s="2">
-        <v>136</v>
+        <v>10</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -3304,10 +3304,10 @@
         <v>1</v>
       </c>
       <c r="B207" s="2">
-        <v>45985</v>
+        <v>46003</v>
       </c>
       <c r="C207" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>6</v>
@@ -3318,13 +3318,13 @@
         <v>1</v>
       </c>
       <c r="B208" s="2">
-        <v>45985</v>
+        <v>46008</v>
       </c>
       <c r="C208" s="2">
-        <v>1228</v>
+        <v>118</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -3332,13 +3332,13 @@
         <v>1</v>
       </c>
       <c r="B209" s="2">
-        <v>45986</v>
+        <v>45971</v>
       </c>
       <c r="C209" s="2">
+        <v>3</v>
+      </c>
+      <c r="D209" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="D209" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -3346,10 +3346,10 @@
         <v>1</v>
       </c>
       <c r="B210" s="2">
-        <v>45986</v>
+        <v>45975</v>
       </c>
       <c r="C210" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D210" s="2" t="s">
         <v>6</v>
@@ -3360,13 +3360,13 @@
         <v>1</v>
       </c>
       <c r="B211" s="2">
-        <v>45986</v>
+        <v>45981</v>
       </c>
       <c r="C211" s="2">
-        <v>201</v>
+        <v>265</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -3374,10 +3374,10 @@
         <v>1</v>
       </c>
       <c r="B212" s="2">
-        <v>45988</v>
+        <v>45983</v>
       </c>
       <c r="C212" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>6</v>
@@ -3388,13 +3388,13 @@
         <v>1</v>
       </c>
       <c r="B213" s="2">
-        <v>45989</v>
+        <v>45983</v>
       </c>
       <c r="C213" s="2">
-        <v>11</v>
+        <v>243</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -3402,10 +3402,10 @@
         <v>1</v>
       </c>
       <c r="B214" s="2">
-        <v>45989</v>
+        <v>45984</v>
       </c>
       <c r="C214" s="2">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="D214" s="2" t="s">
         <v>6</v>
@@ -3416,10 +3416,10 @@
         <v>1</v>
       </c>
       <c r="B215" s="2">
-        <v>45989</v>
+        <v>45984</v>
       </c>
       <c r="C215" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D215" s="2" t="s">
         <v>6</v>
@@ -3430,13 +3430,13 @@
         <v>1</v>
       </c>
       <c r="B216" s="2">
-        <v>45989</v>
+        <v>45984</v>
       </c>
       <c r="C216" s="2">
-        <v>281</v>
+        <v>1514</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -3444,10 +3444,10 @@
         <v>1</v>
       </c>
       <c r="B217" s="2">
-        <v>45990</v>
+        <v>45986</v>
       </c>
       <c r="C217" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D217" s="2" t="s">
         <v>6</v>
@@ -3458,10 +3458,10 @@
         <v>1</v>
       </c>
       <c r="B218" s="2">
-        <v>45991</v>
+        <v>45987</v>
       </c>
       <c r="C218" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D218" s="2" t="s">
         <v>6</v>
@@ -3472,10 +3472,10 @@
         <v>1</v>
       </c>
       <c r="B219" s="2">
-        <v>45991</v>
+        <v>45987</v>
       </c>
       <c r="C219" s="2">
-        <v>2</v>
+        <v>1034</v>
       </c>
       <c r="D219" s="2" t="s">
         <v>6</v>
@@ -3486,13 +3486,13 @@
         <v>1</v>
       </c>
       <c r="B220" s="2">
-        <v>45991</v>
+        <v>45988</v>
       </c>
       <c r="C220" s="2">
-        <v>54</v>
+        <v>239</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -3500,10 +3500,10 @@
         <v>1</v>
       </c>
       <c r="B221" s="2">
-        <v>45992</v>
+        <v>45990</v>
       </c>
       <c r="C221" s="2">
-        <v>7</v>
+        <v>962</v>
       </c>
       <c r="D221" s="2" t="s">
         <v>6</v>
@@ -3514,13 +3514,13 @@
         <v>1</v>
       </c>
       <c r="B222" s="2">
-        <v>45992</v>
+        <v>45991</v>
       </c>
       <c r="C222" s="2">
-        <v>1</v>
+        <v>197</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -3528,7 +3528,7 @@
         <v>1</v>
       </c>
       <c r="B223" s="2">
-        <v>45994</v>
+        <v>45992</v>
       </c>
       <c r="C223" s="2">
         <v>2</v>
@@ -3545,7 +3545,7 @@
         <v>45994</v>
       </c>
       <c r="C224" s="2">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>6</v>
@@ -3556,13 +3556,13 @@
         <v>1</v>
       </c>
       <c r="B225" s="2">
-        <v>45995</v>
+        <v>45994</v>
       </c>
       <c r="C225" s="2">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -3570,10 +3570,10 @@
         <v>1</v>
       </c>
       <c r="B226" s="2">
-        <v>45996</v>
+        <v>45997</v>
       </c>
       <c r="C226" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D226" s="2" t="s">
         <v>6</v>
@@ -3587,10 +3587,10 @@
         <v>45997</v>
       </c>
       <c r="C227" s="2">
-        <v>64</v>
+        <v>173</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -3598,13 +3598,13 @@
         <v>1</v>
       </c>
       <c r="B228" s="2">
-        <v>45998</v>
+        <v>45999</v>
       </c>
       <c r="C228" s="2">
-        <v>205</v>
+        <v>66</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -3612,10 +3612,10 @@
         <v>1</v>
       </c>
       <c r="B229" s="2">
-        <v>45999</v>
+        <v>46000</v>
       </c>
       <c r="C229" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D229" s="2" t="s">
         <v>6</v>
@@ -3629,10 +3629,10 @@
         <v>46000</v>
       </c>
       <c r="C230" s="2">
-        <v>79</v>
+        <v>913</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -3640,13 +3640,13 @@
         <v>1</v>
       </c>
       <c r="B231" s="2">
-        <v>46001</v>
+        <v>46002</v>
       </c>
       <c r="C231" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -3654,10 +3654,10 @@
         <v>1</v>
       </c>
       <c r="B232" s="2">
-        <v>46002</v>
+        <v>46003</v>
       </c>
       <c r="C232" s="2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D232" s="2" t="s">
         <v>6</v>
@@ -3668,13 +3668,13 @@
         <v>1</v>
       </c>
       <c r="B233" s="2">
-        <v>46002</v>
+        <v>46003</v>
       </c>
       <c r="C233" s="2">
-        <v>741</v>
+        <v>1104</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="B234" s="2">
-        <v>46003</v>
+        <v>46004</v>
       </c>
       <c r="C234" s="2">
         <v>2</v>
@@ -3699,10 +3699,10 @@
         <v>46004</v>
       </c>
       <c r="C235" s="2">
-        <v>417</v>
+        <v>15</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -3713,7 +3713,7 @@
         <v>46005</v>
       </c>
       <c r="C236" s="2">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="D236" s="2" t="s">
         <v>6</v>
@@ -3724,10 +3724,10 @@
         <v>1</v>
       </c>
       <c r="B237" s="2">
-        <v>46005</v>
+        <v>46006</v>
       </c>
       <c r="C237" s="2">
-        <v>993</v>
+        <v>5</v>
       </c>
       <c r="D237" s="2" t="s">
         <v>6</v>
@@ -3738,13 +3738,13 @@
         <v>1</v>
       </c>
       <c r="B238" s="2">
-        <v>46007</v>
+        <v>46006</v>
       </c>
       <c r="C238" s="2">
-        <v>77</v>
+        <v>1389</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -3752,13 +3752,13 @@
         <v>1</v>
       </c>
       <c r="B239" s="2">
-        <v>46007</v>
+        <v>46006</v>
       </c>
       <c r="C239" s="2">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -3766,10 +3766,10 @@
         <v>1</v>
       </c>
       <c r="B240" s="2">
-        <v>46008</v>
+        <v>46007</v>
       </c>
       <c r="C240" s="2">
-        <v>596</v>
+        <v>9</v>
       </c>
       <c r="D240" s="2" t="s">
         <v>6</v>
@@ -3783,10 +3783,10 @@
         <v>46008</v>
       </c>
       <c r="C241" s="2">
-        <v>1505</v>
+        <v>82</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="242" spans="1:4">
